--- a/documents/状态与转换要求.xlsx
+++ b/documents/状态与转换要求.xlsx
@@ -159,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>情侣16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这个情侣显示是一个问题，估计暂时只能让大家都睁眼看，确认身份以后需要两人都点击下一步，进入下一阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,16 +188,6 @@
   </si>
   <si>
     <t>房间状态改变5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼人选人6
-狼人聊天14
-房间状态改变5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -234,16 +220,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间状态改变5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下一步4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择是否竞选警长6
-下一步4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -274,23 +251,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接受之前的所有名单，修改参选警长玩家的表，参选玩家轮流发言，客户端控制，所有玩家都发完言，由房主（或者参选的人？）点击下一步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有未参选的玩家投票，每个玩家投票后点击下一步，所有未参选玩家都投票后，界面跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>累积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>警长投票7
-下一步4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下一步4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,22 +267,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有存活玩家投票，每个玩家投票完点击下一步，所有未参选玩家投票后，界面跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>累积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白天投票10
-下一步4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间状态改变5
-警长投票结果9
-警徽归属10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,16 +276,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猎人杀人好像还没写
+    <t>猎人死了，进入这个阶段，且上一个阶段是投票，则公布投票结果，猎人选择是否发动技能？要不就规定猎人必须发动技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若上一个阶段是投票，公布投票结果，留遗言，下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情侣16
+房间状态改变5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫15
+房间状态改变5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人选人6
+狼人聊天14
+房间状态改变5
+角色存活状态改变7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞选警长人名单8
+房间状态改变5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择是否竞选警长6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受之前的所有名单，修改参选警长玩家的表，参选玩家轮流发言，客户端控制，所有玩家都发完言，由房主点击下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间状态改变5
+警长投票结果9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有未参选的玩家投票，每个玩家投票后，所有未参选玩家都投票后，界面跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警长投票7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有存活玩家投票，每个玩家投票，所有未参选玩家投票后，界面跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天投票10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作5action0
 下一步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎人死了，进入这个阶段，且上一个阶段是投票，则公布投票结果，猎人选择是否发动技能？要不就规定猎人必须发动技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若上一个阶段是投票，公布投票结果，留遗言，下一步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +704,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -805,10 +805,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -816,16 +816,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -833,16 +833,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -850,16 +850,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -867,16 +867,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -884,16 +884,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -901,16 +901,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -918,33 +918,33 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -952,16 +952,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -969,16 +969,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -986,16 +986,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1003,16 +1003,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
